--- a/data_quarter/zb/建筑业/建筑业企业房屋建筑竣工面积.xlsx
+++ b/data_quarter/zb/建筑业/建筑业企业房屋建筑竣工面积.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:AQ73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,11 +539,116 @@
           <t>餐饮用房屋竣工面积_累计值</t>
         </is>
       </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>仓库竣工面积</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>住宅房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>住宿和餐饮用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>其他商业及服务用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>其他未列明的房屋建筑物竣工面积</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>办公用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>医疗用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>厂房及建筑物竣工面积</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>厂房竣工面积</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>商业及服务用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>商务会展用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>商厦房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>宾馆用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>居民服务用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>房屋建筑竣工面积</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>批发和零售用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>教育用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>文化、体育和娱乐用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>科学研究用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>科研、教育和医疗用房屋竣工面积</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>餐饮用房屋竣工面积</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年第一季度</t>
+          <t>2004年A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -591,32 +696,77 @@
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>6314.88</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>204.09</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
+        <v>397.23</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1015.13</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>132.35</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2243.34</v>
+      </c>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="n">
+        <v>187.66</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>11499.96</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>254.62</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>579.91</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>128.56</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>42.19</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2004年第三季度</t>
+          <t>2004年B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>31999.67</v>
+        <v>16734.72</v>
       </c>
       <c r="D3" t="n">
-        <v>1017.96</v>
+        <v>506.68</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>2220.09</v>
+        <v>1079.52</v>
       </c>
       <c r="G3" t="n">
-        <v>5268.63</v>
+        <v>2823.82</v>
       </c>
       <c r="H3" t="n">
-        <v>617.7</v>
+        <v>350.4</v>
       </c>
       <c r="I3" t="n">
-        <v>10473.72</v>
+        <v>6171.99</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -624,51 +774,96 @@
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="n">
-        <v>974.99</v>
+        <v>498.59</v>
       </c>
       <c r="P3" t="n">
-        <v>58711.72</v>
+        <v>30989.27</v>
       </c>
       <c r="Q3" t="n">
-        <v>1518.64</v>
+        <v>767.86</v>
       </c>
       <c r="R3" t="n">
-        <v>3663.18</v>
+        <v>1598.2</v>
       </c>
       <c r="S3" t="n">
-        <v>753.63</v>
+        <v>346.55</v>
       </c>
       <c r="T3" t="n">
-        <v>203.5</v>
+        <v>110.94</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>10419.84</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>302.59</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>682.29</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1808.69</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>218.05</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3928.65</v>
+      </c>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="n">
+        <v>310.9299999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>19489.31</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>513.24</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1018.29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>217.99</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年第二季度</t>
+          <t>2004年C</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>16734.72</v>
+        <v>31999.67</v>
       </c>
       <c r="D4" t="n">
-        <v>506.68</v>
+        <v>1017.96</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>1079.52</v>
+        <v>2220.09</v>
       </c>
       <c r="G4" t="n">
-        <v>2823.82</v>
+        <v>5268.63</v>
       </c>
       <c r="H4" t="n">
-        <v>350.4</v>
+        <v>617.7</v>
       </c>
       <c r="I4" t="n">
-        <v>6171.99</v>
+        <v>10473.72</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -676,30 +871,75 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="n">
-        <v>498.59</v>
+        <v>974.99</v>
       </c>
       <c r="P4" t="n">
-        <v>30989.27</v>
+        <v>58711.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>767.86</v>
+        <v>1518.64</v>
       </c>
       <c r="R4" t="n">
-        <v>1598.2</v>
+        <v>3663.18</v>
       </c>
       <c r="S4" t="n">
-        <v>346.55</v>
+        <v>753.63</v>
       </c>
       <c r="T4" t="n">
-        <v>110.94</v>
+        <v>203.5</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>15264.95</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>511.28</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
+        <v>1140.57</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2444.81</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>267.3000000000001</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4301.73</v>
+      </c>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="n">
+        <v>476.4</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>27722.45</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>750.7800000000001</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>2064.98</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>407.08</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>92.56</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2004年第四季度</t>
+          <t>2004年D</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -747,11 +987,56 @@
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>36744.29000000001</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>992.3299999999999</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
+        <v>2402.27</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>5133.900000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>592.3899999999999</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>16729.74</v>
+      </c>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="n">
+        <v>910.0799999999999</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>69450.84</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>1653.64</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>3338.91</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>637.88</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>315.4400000000001</v>
+      </c>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年第一季度</t>
+          <t>2005年A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -799,32 +1084,77 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="n">
+        <v>7110.83</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>230.44</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>452.3</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1393.56</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>183.01</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2602.16</v>
+      </c>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="n">
+        <v>180.87</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>13376.75</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>358.4</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>659.36</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>149.11</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年第三季度</t>
+          <t>2005年B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>39349.51</v>
+        <v>20821.27</v>
       </c>
       <c r="D7" t="n">
-        <v>1142.35</v>
+        <v>640.01</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>2328.7</v>
+        <v>1243.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6420.24</v>
+        <v>3583.71</v>
       </c>
       <c r="H7" t="n">
-        <v>663.46</v>
+        <v>374.74</v>
       </c>
       <c r="I7" t="n">
-        <v>13473.55</v>
+        <v>7538.85</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -832,51 +1162,96 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="n">
-        <v>949.64</v>
+        <v>453.65</v>
       </c>
       <c r="P7" t="n">
-        <v>71078.75999999999</v>
+        <v>37978.28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1729.08</v>
+        <v>893.6900000000001</v>
       </c>
       <c r="R7" t="n">
-        <v>3848.52</v>
+        <v>1797.64</v>
       </c>
       <c r="S7" t="n">
-        <v>940.55</v>
+        <v>478.85</v>
       </c>
       <c r="T7" t="n">
-        <v>233.15</v>
+        <v>151.98</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>13710.44</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>409.57</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="n">
+        <v>791.6000000000001</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2190.15</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>191.73</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>4936.690000000001</v>
+      </c>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="n">
+        <v>272.78</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>24601.53</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>535.2900000000001</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1138.28</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>329.74</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>95.26999999999998</v>
+      </c>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2005年第二季度</t>
+          <t>2005年C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>20821.27</v>
+        <v>39349.51</v>
       </c>
       <c r="D8" t="n">
-        <v>640.01</v>
+        <v>1142.35</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>1243.9</v>
+        <v>2328.7</v>
       </c>
       <c r="G8" t="n">
-        <v>3583.71</v>
+        <v>6420.24</v>
       </c>
       <c r="H8" t="n">
-        <v>374.74</v>
+        <v>663.46</v>
       </c>
       <c r="I8" t="n">
-        <v>7538.85</v>
+        <v>13473.55</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -884,30 +1259,75 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="n">
-        <v>453.65</v>
+        <v>949.64</v>
       </c>
       <c r="P8" t="n">
-        <v>37978.28</v>
+        <v>71078.75999999999</v>
       </c>
       <c r="Q8" t="n">
-        <v>893.6900000000001</v>
+        <v>1729.08</v>
       </c>
       <c r="R8" t="n">
-        <v>1797.64</v>
+        <v>3848.52</v>
       </c>
       <c r="S8" t="n">
-        <v>478.85</v>
+        <v>940.55</v>
       </c>
       <c r="T8" t="n">
-        <v>151.98</v>
+        <v>233.15</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>18528.24</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>502.3399999999999</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="n">
+        <v>1084.8</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2836.53</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>288.72</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>5934.699999999999</v>
+      </c>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="n">
+        <v>495.99</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>33100.48</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>835.3899999999999</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>2050.88</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>461.6999999999999</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>81.17000000000002</v>
+      </c>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2005年第四季度</t>
+          <t>2005年D</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -955,11 +1375,56 @@
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>45007.6</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1391.53</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="n">
+        <v>2979.41</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>6665.33</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>862.4200000000001</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>13865.96</v>
+      </c>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="n">
+        <v>1052.38</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>79087.71000000001</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>1954.1</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>4223.15</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>842.96</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>242.88</v>
+      </c>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2006年第一季度</t>
+          <t>2006年A</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1007,32 +1472,77 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>9176.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>208.84</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="n">
+        <v>579.04</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1499.32</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>187.01</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>3761.93</v>
+      </c>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="n">
+        <v>210.51</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>16959.94</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>404.31</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>698.4400000000001</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>178.86</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>55.17</v>
+      </c>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2006年第三季度</t>
+          <t>2006年B</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>42980.66</v>
+        <v>24296.58</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.57</v>
+        <v>679.38</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>2544.23</v>
+        <v>1436.93</v>
       </c>
       <c r="G11" t="n">
-        <v>6453.42</v>
+        <v>3671.24</v>
       </c>
       <c r="H11" t="n">
-        <v>783.05</v>
+        <v>461.22</v>
       </c>
       <c r="I11" t="n">
-        <v>15249.31</v>
+        <v>9178.299999999999</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1040,51 +1550,96 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="n">
-        <v>1046.5</v>
+        <v>578.64</v>
       </c>
       <c r="P11" t="n">
-        <v>77552.00999999999</v>
+        <v>44078.89</v>
       </c>
       <c r="Q11" t="n">
-        <v>1974.18</v>
+        <v>1145.74</v>
       </c>
       <c r="R11" t="n">
-        <v>4017.35</v>
+        <v>1967.31</v>
       </c>
       <c r="S11" t="n">
-        <v>925.55</v>
+        <v>497.64</v>
       </c>
       <c r="T11" t="n">
-        <v>289.19</v>
+        <v>165.93</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>15120.08</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>470.54</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="n">
+        <v>857.8900000000001</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2171.92</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>274.21</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>5416.369999999999</v>
+      </c>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="n">
+        <v>368.13</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>27118.95</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>741.4300000000001</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1268.87</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>318.78</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>110.76</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2006年第二季度</t>
+          <t>2006年C</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>24296.58</v>
+        <v>42980.66</v>
       </c>
       <c r="D12" t="n">
-        <v>679.38</v>
+        <v>1288.57</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1436.93</v>
+        <v>2544.23</v>
       </c>
       <c r="G12" t="n">
-        <v>3671.24</v>
+        <v>6453.42</v>
       </c>
       <c r="H12" t="n">
-        <v>461.22</v>
+        <v>783.05</v>
       </c>
       <c r="I12" t="n">
-        <v>9178.299999999999</v>
+        <v>15249.31</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1092,30 +1647,75 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="n">
-        <v>578.64</v>
+        <v>1046.5</v>
       </c>
       <c r="P12" t="n">
-        <v>44078.89</v>
+        <v>77552.00999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>1145.74</v>
+        <v>1974.18</v>
       </c>
       <c r="R12" t="n">
-        <v>1967.31</v>
+        <v>4017.35</v>
       </c>
       <c r="S12" t="n">
-        <v>497.64</v>
+        <v>925.55</v>
       </c>
       <c r="T12" t="n">
-        <v>165.93</v>
+        <v>289.19</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>18684.08</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>609.1899999999999</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="n">
+        <v>1107.3</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2782.18</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>321.8299999999999</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6071.01</v>
+      </c>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="n">
+        <v>467.86</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>33473.12</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>828.4400000000001</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>2050.04</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>427.91</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>123.26</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2006年第四季度</t>
+          <t>2006年D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1163,11 +1763,56 @@
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>50957.64</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1274.25</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="n">
+        <v>2736.56</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7485.110000000001</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>746.6600000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>14445.58</v>
+      </c>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="n">
+        <v>1150.65</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>86570.50999999999</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2265.66</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>4323.41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>984.01</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>200.98</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2007年第一季度</t>
+          <t>2007年A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1215,32 +1860,77 @@
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>11253.8615</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>303.7213</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>515.7184999999999</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1735.5562</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>189.751</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>4585.156</v>
+      </c>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="n">
+        <v>240.7682</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>20389.8928</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>436.0405</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>802.669</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>261.1324</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>65.51819999999999</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2007年第三季度</t>
+          <t>2007年B</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>54156.276</v>
+        <v>30845.52</v>
       </c>
       <c r="D15" t="n">
-        <v>1641.3479</v>
+        <v>860.55</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>3130.1882</v>
+        <v>1713.47</v>
       </c>
       <c r="G15" t="n">
-        <v>8263.4689</v>
+        <v>4866.91</v>
       </c>
       <c r="H15" t="n">
-        <v>843.9105</v>
+        <v>497.89</v>
       </c>
       <c r="I15" t="n">
-        <v>19423.9506</v>
+        <v>11441.44</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -1248,51 +1938,96 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="n">
-        <v>1149.6331</v>
+        <v>618.64</v>
       </c>
       <c r="P15" t="n">
-        <v>96258.84110000001</v>
+        <v>54961.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>2112.0159</v>
+        <v>1215.86</v>
       </c>
       <c r="R15" t="n">
-        <v>4098.0636</v>
+        <v>2125.79</v>
       </c>
       <c r="S15" t="n">
-        <v>1107.7031</v>
+        <v>610.67</v>
       </c>
       <c r="T15" t="n">
-        <v>332.2833</v>
+        <v>165.09</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>19591.6585</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>556.8287</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="n">
+        <v>1197.7515</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>3131.3538</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>308.139</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6856.284000000001</v>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="n">
+        <v>377.8718</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>34571.9472</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>779.8194999999998</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1323.121</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>349.5375999999999</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>99.57180000000001</v>
+      </c>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2007年第二季度</t>
+          <t>2007年C</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>30845.52</v>
+        <v>54156.276</v>
       </c>
       <c r="D16" t="n">
-        <v>860.55</v>
+        <v>1641.3479</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>1713.47</v>
+        <v>3130.1882</v>
       </c>
       <c r="G16" t="n">
-        <v>4866.91</v>
+        <v>8263.4689</v>
       </c>
       <c r="H16" t="n">
-        <v>497.89</v>
+        <v>843.9105</v>
       </c>
       <c r="I16" t="n">
-        <v>11441.44</v>
+        <v>19423.9506</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1300,30 +2035,75 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="n">
-        <v>618.64</v>
+        <v>1149.6331</v>
       </c>
       <c r="P16" t="n">
-        <v>54961.84</v>
+        <v>96258.84110000001</v>
       </c>
       <c r="Q16" t="n">
-        <v>1215.86</v>
+        <v>2112.0159</v>
       </c>
       <c r="R16" t="n">
-        <v>2125.79</v>
+        <v>4098.0636</v>
       </c>
       <c r="S16" t="n">
-        <v>610.67</v>
+        <v>1107.7031</v>
       </c>
       <c r="T16" t="n">
-        <v>165.09</v>
+        <v>332.2833</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>23310.756</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>780.7979</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="n">
+        <v>1416.7182</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>3396.5589</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>346.0205</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7982.5106</v>
+      </c>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="n">
+        <v>530.9931</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41297.00110000001</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>896.1559</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1972.2736</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>497.0331</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>167.1933</v>
+      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2007年第四季度</t>
+          <t>2007年D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1371,11 +2151,56 @@
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>54006.12390000001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1394.8546</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="n">
+        <v>3165.9098</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>7029.8081</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>921.0094000000001</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>15548.0139</v>
+      </c>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
+        <v>1016.832</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>89707.0622</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2102.069</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3231.1632</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1010.7856</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>280.4927</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2008年第一季度</t>
+          <t>2008年A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1423,32 +2248,77 @@
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="n">
+        <v>14131.12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>404.72</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="n">
+        <v>609.84</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>1989.93</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>184.37</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5330.23</v>
+      </c>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="n">
+        <v>251.94</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>24567.82</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>465.83</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>887.1799999999999</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>236.31</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>76.34</v>
+      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2008年第三季度</t>
+          <t>2008年B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>62600.36</v>
+        <v>36596.97</v>
       </c>
       <c r="D19" t="n">
-        <v>1949.86</v>
+        <v>1070.86</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>3094.84</v>
+        <v>1788.41</v>
       </c>
       <c r="G19" t="n">
-        <v>8398.969999999999</v>
+        <v>5135.61</v>
       </c>
       <c r="H19" t="n">
-        <v>973.38</v>
+        <v>556.3099999999999</v>
       </c>
       <c r="I19" t="n">
-        <v>20865.42</v>
+        <v>12556.58</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1456,51 +2326,96 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1140.95</v>
+        <v>721.6</v>
       </c>
       <c r="P19" t="n">
-        <v>106525.14</v>
+        <v>62744.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2080</v>
+        <v>1239.29</v>
       </c>
       <c r="R19" t="n">
-        <v>3916.76</v>
+        <v>2218.02</v>
       </c>
       <c r="S19" t="n">
-        <v>1202.48</v>
+        <v>694.96</v>
       </c>
       <c r="T19" t="n">
-        <v>302.12</v>
+        <v>165.68</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>22465.85</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>666.1399999999999</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>1178.57</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>3145.679999999999</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>371.9399999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7226.35</v>
+      </c>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="n">
+        <v>469.66</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>38176.48</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>773.46</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1330.84</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>458.65</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>89.34</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2008年第二季度</t>
+          <t>2008年C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>36596.97</v>
+        <v>62600.36</v>
       </c>
       <c r="D20" t="n">
-        <v>1070.86</v>
+        <v>1949.86</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>1788.41</v>
+        <v>3094.84</v>
       </c>
       <c r="G20" t="n">
-        <v>5135.61</v>
+        <v>8398.969999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>556.3099999999999</v>
+        <v>973.38</v>
       </c>
       <c r="I20" t="n">
-        <v>12556.58</v>
+        <v>20865.42</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1508,30 +2423,75 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="n">
-        <v>721.6</v>
+        <v>1140.95</v>
       </c>
       <c r="P20" t="n">
-        <v>62744.3</v>
+        <v>106525.14</v>
       </c>
       <c r="Q20" t="n">
-        <v>1239.29</v>
+        <v>2080</v>
       </c>
       <c r="R20" t="n">
-        <v>2218.02</v>
+        <v>3916.76</v>
       </c>
       <c r="S20" t="n">
-        <v>694.96</v>
+        <v>1202.48</v>
       </c>
       <c r="T20" t="n">
-        <v>165.68</v>
+        <v>302.12</v>
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>26003.39</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>879</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>1306.43</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>3263.36</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>417.0700000000001</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>8308.839999999998</v>
+      </c>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="n">
+        <v>419.35</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>43780.84</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>840.71</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1698.74</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>507.52</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>136.44</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2008年第四季度</t>
+          <t>2008年D</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1579,11 +2539,56 @@
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="n">
+        <v>59113.50999999999</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1378.95</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="n">
+        <v>3213.62</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6713</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>925.17</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>16773.88</v>
+      </c>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="n">
+        <v>1236.62</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>96179.18999999999</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2043.03</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>3412.49</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1064.67</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>304.26</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2009年第一季度</t>
+          <t>2009年A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1631,32 +2636,77 @@
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>15148.18</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>345</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="n">
+        <v>676.28</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2027.03</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>242.53</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>5258.76</v>
+      </c>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="n">
+        <v>344.52</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>25964.85</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>626.74</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>953.78</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>262.93</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>79.09999999999999</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2009年第三季度</t>
+          <t>2009年B</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>69603.7</v>
+        <v>40119.8</v>
       </c>
       <c r="D23" t="n">
-        <v>1619.2</v>
+        <v>885.8</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>3651.6</v>
+        <v>1951.6</v>
       </c>
       <c r="G23" t="n">
-        <v>9491.799999999999</v>
+        <v>5346.2</v>
       </c>
       <c r="H23" t="n">
-        <v>1277.3</v>
+        <v>709</v>
       </c>
       <c r="I23" t="n">
-        <v>20999.9</v>
+        <v>12746.2</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1664,51 +2714,96 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="n">
-        <v>1415</v>
+        <v>807.2</v>
       </c>
       <c r="P23" t="n">
-        <v>116738.9</v>
+        <v>67122.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2551.7</v>
+        <v>1345.3</v>
       </c>
       <c r="R23" t="n">
-        <v>4526.9</v>
+        <v>2335.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1214.5</v>
+        <v>674.9</v>
       </c>
       <c r="T23" t="n">
-        <v>387.3</v>
+        <v>201.8</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="n">
+        <v>24971.62</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>540.8</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="n">
+        <v>1275.32</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>3319.17</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>466.47</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7487.440000000001</v>
+      </c>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="n">
+        <v>462.6800000000001</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>41157.95</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>718.5599999999999</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1381.32</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>411.97</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2009年第二季度</t>
+          <t>2009年C</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>40119.8</v>
+        <v>69603.7</v>
       </c>
       <c r="D24" t="n">
-        <v>885.8</v>
+        <v>1619.2</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>1951.6</v>
+        <v>3651.6</v>
       </c>
       <c r="G24" t="n">
-        <v>5346.2</v>
+        <v>9491.799999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>709</v>
+        <v>1277.3</v>
       </c>
       <c r="I24" t="n">
-        <v>12746.2</v>
+        <v>20999.9</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1716,30 +2811,75 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="n">
-        <v>807.2</v>
+        <v>1415</v>
       </c>
       <c r="P24" t="n">
-        <v>67122.8</v>
+        <v>116738.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1345.3</v>
+        <v>2551.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2335.1</v>
+        <v>4526.9</v>
       </c>
       <c r="S24" t="n">
-        <v>674.9</v>
+        <v>1214.5</v>
       </c>
       <c r="T24" t="n">
-        <v>201.8</v>
+        <v>387.3</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="n">
+        <v>29483.89999999999</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>733.4000000000001</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>4145.599999999999</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>568.3</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>8253.700000000001</v>
+      </c>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="n">
+        <v>607.8</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>49616.09999999999</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1206.4</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>2191.8</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>539.6</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2009年第四季度</t>
+          <t>2009年D</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
@@ -1787,11 +2927,56 @@
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="n">
+        <v>71458.90000000001</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1736.6</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="n">
+        <v>3378.7</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>8110.200000000001</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1181.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>18061.5</v>
+      </c>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="n">
+        <v>1100.2</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>112837.2</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2327.1</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>4056.4</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1133.2</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>292.9</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2010年第一季度</t>
+          <t>2010年A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -1839,32 +3024,77 @@
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="n">
+        <v>18250.7</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>388.8</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="n">
+        <v>922.9</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2339.1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>344.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>5488.3</v>
+      </c>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="n">
+        <v>312</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>30091.8</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>549</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1081.8</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>317.8</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2010年第三季度</t>
+          <t>2010年B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>78959.95</v>
+        <v>44592.1</v>
       </c>
       <c r="D27" t="n">
-        <v>1862.99</v>
+        <v>971.1</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>4216.55</v>
+        <v>2505.3</v>
       </c>
       <c r="G27" t="n">
-        <v>9989.09</v>
+        <v>5652.4</v>
       </c>
       <c r="H27" t="n">
-        <v>1638.61</v>
+        <v>906.8</v>
       </c>
       <c r="I27" t="n">
-        <v>23248.22</v>
+        <v>13120.6</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1872,51 +3102,96 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="n">
-        <v>1380.75</v>
+        <v>866.3</v>
       </c>
       <c r="P27" t="n">
-        <v>131041.12</v>
+        <v>74043.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>2705.45</v>
+        <v>1671.8</v>
       </c>
       <c r="R27" t="n">
-        <v>4852.41</v>
+        <v>2548.3</v>
       </c>
       <c r="S27" t="n">
-        <v>1651.07</v>
+        <v>918.3</v>
       </c>
       <c r="T27" t="n">
-        <v>536.02</v>
+        <v>290.9</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="n">
+        <v>26341.4</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>582.3</v>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="n">
+        <v>1582.4</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>3313.3</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>562</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7632.3</v>
+      </c>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="n">
+        <v>554.3</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>43952</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1122.8</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1466.5</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>600.5</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>194.2</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2010年第二季度</t>
+          <t>2010年C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>44592.1</v>
+        <v>78959.95</v>
       </c>
       <c r="D28" t="n">
-        <v>971.1</v>
+        <v>1862.99</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>2505.3</v>
+        <v>4216.55</v>
       </c>
       <c r="G28" t="n">
-        <v>5652.4</v>
+        <v>9989.09</v>
       </c>
       <c r="H28" t="n">
-        <v>906.8</v>
+        <v>1638.61</v>
       </c>
       <c r="I28" t="n">
-        <v>13120.6</v>
+        <v>23248.22</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1924,30 +3199,75 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="n">
-        <v>866.3</v>
+        <v>1380.75</v>
       </c>
       <c r="P28" t="n">
-        <v>74043.8</v>
+        <v>131041.12</v>
       </c>
       <c r="Q28" t="n">
-        <v>1671.8</v>
+        <v>2705.45</v>
       </c>
       <c r="R28" t="n">
-        <v>2548.3</v>
+        <v>4852.41</v>
       </c>
       <c r="S28" t="n">
-        <v>918.3</v>
+        <v>1651.07</v>
       </c>
       <c r="T28" t="n">
-        <v>290.9</v>
+        <v>536.02</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="n">
+        <v>34367.85</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>891.89</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="n">
+        <v>1711.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>4336.690000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>731.8099999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>10127.62</v>
+      </c>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>56997.31999999999</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>1033.65</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>2304.11</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>732.77</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>245.12</v>
+      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2010年第四季度</t>
+          <t>2010年D</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1995,11 +3315,56 @@
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="n">
+        <v>81684.78000000001</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1916.09</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="n">
+        <v>4333.429999999999</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8680.740000000002</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1292.73</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>21402.22</v>
+      </c>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="n">
+        <v>1453.3</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>128937.62</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>2489.74</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>4192.040000000001</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1158.54</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>334.03</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2011年第一季度</t>
+          <t>2011年A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
@@ -2047,32 +3412,77 @@
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="n">
+        <v>20597.86</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>742.89</v>
+      </c>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="n">
+        <v>1007.66</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>2680.74</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>424.49</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7052.35</v>
+      </c>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="n">
+        <v>311.36</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>35309.02</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>761.7</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1271.34</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>374.16</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>84.48</v>
+      </c>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2011年第三季度</t>
+          <t>2011年B</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>93284.78999999999</v>
+        <v>52057.34</v>
       </c>
       <c r="D31" t="n">
-        <v>2090.08</v>
+        <v>1240.95</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>5341.88</v>
+        <v>2594.08</v>
       </c>
       <c r="G31" t="n">
-        <v>10630.28</v>
+        <v>6288.59</v>
       </c>
       <c r="H31" t="n">
-        <v>1614.18</v>
+        <v>896.29</v>
       </c>
       <c r="I31" t="n">
-        <v>28777.91</v>
+        <v>16262.88</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -2080,51 +3490,96 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="n">
-        <v>1340.79</v>
+        <v>749.16</v>
       </c>
       <c r="P31" t="n">
-        <v>153270.16</v>
+        <v>85920.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>2663.03</v>
+        <v>1634.94</v>
       </c>
       <c r="R31" t="n">
-        <v>5372.59</v>
+        <v>3006.49</v>
       </c>
       <c r="S31" t="n">
-        <v>1733.78</v>
+        <v>957.88</v>
       </c>
       <c r="T31" t="n">
-        <v>420.83</v>
+        <v>231.77</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="n">
+        <v>31459.48</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>498.0600000000001</v>
+      </c>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="n">
+        <v>1586.42</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>3607.85</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>471.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9210.529999999999</v>
+      </c>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="n">
+        <v>437.8</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>50611.34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>873.24</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>1735.15</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>583.72</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>147.29</v>
+      </c>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2011年第二季度</t>
+          <t>2011年C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>52057.34</v>
+        <v>93284.78999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1240.95</v>
+        <v>2090.08</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>2594.08</v>
+        <v>5341.88</v>
       </c>
       <c r="G32" t="n">
-        <v>6288.59</v>
+        <v>10630.28</v>
       </c>
       <c r="H32" t="n">
-        <v>896.29</v>
+        <v>1614.18</v>
       </c>
       <c r="I32" t="n">
-        <v>16262.88</v>
+        <v>28777.91</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -2132,30 +3587,75 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="n">
-        <v>749.16</v>
+        <v>1340.79</v>
       </c>
       <c r="P32" t="n">
-        <v>85920.36</v>
+        <v>153270.16</v>
       </c>
       <c r="Q32" t="n">
-        <v>1634.94</v>
+        <v>2663.03</v>
       </c>
       <c r="R32" t="n">
-        <v>3006.49</v>
+        <v>5372.59</v>
       </c>
       <c r="S32" t="n">
-        <v>957.88</v>
+        <v>1733.78</v>
       </c>
       <c r="T32" t="n">
-        <v>231.77</v>
+        <v>420.83</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="n">
+        <v>41227.45</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>849.1299999999999</v>
+      </c>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="n">
+        <v>2747.8</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>4341.690000000001</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>717.8900000000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>12515.03</v>
+      </c>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="n">
+        <v>591.63</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>67349.8</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>1028.09</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>2366.1</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>775.9</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>189.06</v>
+      </c>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2011年第四季度</t>
+          <t>2011年D</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
@@ -2203,11 +3703,56 @@
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="n">
+        <v>89770.06000000001</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>2079.9</v>
+      </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="n">
+        <v>4652.05</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>8593.719999999999</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1364.35</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>21801.6</v>
+      </c>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="n">
+        <v>1549.98</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>138973.66</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>2890.23</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>4337.200000000001</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1540.66</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>393.93</v>
+      </c>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2267,139 +3812,310 @@
       <c r="V34" t="n">
         <v>113.13</v>
       </c>
+      <c r="W34" t="n">
+        <v>309.44</v>
+      </c>
+      <c r="X34" t="n">
+        <v>25046.42</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>735.3</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1118.1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2879.53</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>481.18</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>6437.26</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>4410.84</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>2433.62</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>75.56</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1140.65</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>368.98</v>
+      </c>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="n">
+        <v>40648.67</v>
+      </c>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="n">
+        <v>1380.24</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>192.07</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2053.49</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>113.13</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1196.16</v>
+        <v>701.58</v>
       </c>
       <c r="C35" t="n">
-        <v>113501.89</v>
+        <v>64686.27</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>3062.11</v>
+        <v>1757.31</v>
       </c>
       <c r="F35" t="n">
-        <v>4224.2</v>
+        <v>2533.42</v>
       </c>
       <c r="G35" t="n">
-        <v>11225.98</v>
+        <v>6921.93</v>
       </c>
       <c r="H35" t="n">
-        <v>1851.4</v>
+        <v>1077.67</v>
       </c>
       <c r="I35" t="n">
-        <v>26555.26</v>
+        <v>15875.6</v>
       </c>
       <c r="J35" t="n">
-        <v>18660.93</v>
+        <v>11051.22</v>
       </c>
       <c r="K35" t="n">
-        <v>10359.39</v>
+        <v>6162.17</v>
       </c>
       <c r="L35" t="n">
-        <v>556.0700000000001</v>
+        <v>381.75</v>
       </c>
       <c r="M35" t="n">
-        <v>4669.69</v>
+        <v>2825.87</v>
       </c>
       <c r="N35" t="n">
-        <v>1614.59</v>
+        <v>937.78</v>
       </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="n">
-        <v>176641.44</v>
+        <v>102497.66</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>5269.37</v>
+        <v>3067.14</v>
       </c>
       <c r="S35" t="n">
-        <v>1647.4</v>
+        <v>1021.75</v>
       </c>
       <c r="T35" t="n">
-        <v>810.38</v>
+        <v>450.14</v>
       </c>
       <c r="U35" t="n">
-        <v>7931.15</v>
+        <v>4594.95</v>
       </c>
       <c r="V35" t="n">
-        <v>456.92</v>
+        <v>259.46</v>
+      </c>
+      <c r="W35" t="n">
+        <v>392.14</v>
+      </c>
+      <c r="X35" t="n">
+        <v>39639.85</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>1022.01</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>1415.32</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>4042.4</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>596.49</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>9438.34</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>6640.379999999999</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>3728.55</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>306.19</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1685.22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>568.8</v>
+      </c>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="n">
+        <v>61848.99000000001</v>
+      </c>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="n">
+        <v>1686.9</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>650.95</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>258.07</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>2541.46</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>146.33</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>701.58</v>
+        <v>1196.16</v>
       </c>
       <c r="C36" t="n">
-        <v>64686.27</v>
+        <v>113501.89</v>
       </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>1757.31</v>
+        <v>3062.11</v>
       </c>
       <c r="F36" t="n">
-        <v>2533.42</v>
+        <v>4224.2</v>
       </c>
       <c r="G36" t="n">
-        <v>6921.93</v>
+        <v>11225.98</v>
       </c>
       <c r="H36" t="n">
-        <v>1077.67</v>
+        <v>1851.4</v>
       </c>
       <c r="I36" t="n">
-        <v>15875.6</v>
+        <v>26555.26</v>
       </c>
       <c r="J36" t="n">
-        <v>11051.22</v>
+        <v>18660.93</v>
       </c>
       <c r="K36" t="n">
-        <v>6162.17</v>
+        <v>10359.39</v>
       </c>
       <c r="L36" t="n">
-        <v>381.75</v>
+        <v>556.0700000000001</v>
       </c>
       <c r="M36" t="n">
-        <v>2825.87</v>
+        <v>4669.69</v>
       </c>
       <c r="N36" t="n">
-        <v>937.78</v>
+        <v>1614.59</v>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
-        <v>102497.66</v>
+        <v>176641.44</v>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>3067.14</v>
+        <v>5269.37</v>
       </c>
       <c r="S36" t="n">
-        <v>1021.75</v>
+        <v>1647.4</v>
       </c>
       <c r="T36" t="n">
-        <v>450.14</v>
+        <v>810.38</v>
       </c>
       <c r="U36" t="n">
-        <v>4594.95</v>
+        <v>7931.15</v>
       </c>
       <c r="V36" t="n">
-        <v>259.46</v>
+        <v>456.92</v>
+      </c>
+      <c r="W36" t="n">
+        <v>494.58</v>
+      </c>
+      <c r="X36" t="n">
+        <v>48815.62</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>1304.8</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1690.78</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>4304.049999999999</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>773.73</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>10679.66</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>7609.710000000001</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>4197.219999999999</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>174.3200000000001</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1843.82</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>676.8099999999999</v>
+      </c>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="n">
+        <v>74143.78</v>
+      </c>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="n">
+        <v>2202.23</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>625.6500000000001</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>360.24</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>3336.2</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>197.46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2012年第四季度</t>
+          <t>2012年D</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2459,11 +4175,68 @@
       <c r="V37" t="n">
         <v>926.8200000000001</v>
       </c>
+      <c r="W37" t="n">
+        <v>1056.24</v>
+      </c>
+      <c r="X37" t="n">
+        <v>112572.74</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>3596.63</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>4111.2</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>10066.97</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1638.49</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>22891.84</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>14751.02</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>10426.27</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>744.91</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>4186.14</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>1428.71</v>
+      </c>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="n">
+        <v>169212.26</v>
+      </c>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="n">
+        <v>4492.929999999999</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1329.66</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>625.9299999999999</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>6757.34</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>469.9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -2523,139 +4296,310 @@
       <c r="V38" t="n">
         <v>120.33</v>
       </c>
+      <c r="W38" t="n">
+        <v>339.65</v>
+      </c>
+      <c r="X38" t="n">
+        <v>30398.48</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>891.29</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>1181.35</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2920.96</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>457.86</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>7511.02</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>5043.49</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>2777.86</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>203.38</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1225.55</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>337.32</v>
+      </c>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="n">
+        <v>47589.04</v>
+      </c>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>1359.77</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>447.51</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>194.58</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>2012.21</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>120.33</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1358.88</v>
+        <v>772.3200000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>134310.33</v>
+        <v>78318.7</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
-        <v>4174.87</v>
+        <v>2315.88</v>
       </c>
       <c r="F39" t="n">
-        <v>4158.41</v>
+        <v>2610.26</v>
       </c>
       <c r="G39" t="n">
-        <v>11730.91</v>
+        <v>7119.83</v>
       </c>
       <c r="H39" t="n">
-        <v>1859.25</v>
+        <v>1120.67</v>
       </c>
       <c r="I39" t="n">
-        <v>28627.49</v>
+        <v>17659.72</v>
       </c>
       <c r="J39" t="n">
-        <v>19701.23</v>
+        <v>12003.11</v>
       </c>
       <c r="K39" t="n">
-        <v>12577.25</v>
+        <v>7363.88</v>
       </c>
       <c r="L39" t="n">
-        <v>639.0599999999999</v>
+        <v>409.43</v>
       </c>
       <c r="M39" t="n">
-        <v>5385.06</v>
+        <v>3350.58</v>
       </c>
       <c r="N39" t="n">
-        <v>1771.67</v>
+        <v>960.3</v>
       </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
-        <v>203263.34</v>
+        <v>119770.37</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>5960.77</v>
+        <v>3193.9</v>
       </c>
       <c r="S39" t="n">
-        <v>1842.46</v>
+        <v>1050.87</v>
       </c>
       <c r="T39" t="n">
-        <v>837.59</v>
+        <v>560.21</v>
       </c>
       <c r="U39" t="n">
-        <v>8657.620000000001</v>
+        <v>4874.78</v>
       </c>
       <c r="V39" t="n">
-        <v>606.58</v>
+        <v>327.69</v>
+      </c>
+      <c r="W39" t="n">
+        <v>432.6700000000001</v>
+      </c>
+      <c r="X39" t="n">
+        <v>47920.22</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>1424.59</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>1428.91</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>4198.87</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>662.8100000000001</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>10148.7</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>6959.620000000001</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>4586.02</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>206.05</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>2125.03</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>622.98</v>
+      </c>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="n">
+        <v>72181.32999999999</v>
+      </c>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="n">
+        <v>1834.13</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>603.3599999999999</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>365.63</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>2862.57</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>207.36</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>772.3200000000001</v>
+        <v>1358.88</v>
       </c>
       <c r="C40" t="n">
-        <v>78318.7</v>
+        <v>134310.33</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
-        <v>2315.88</v>
+        <v>4174.87</v>
       </c>
       <c r="F40" t="n">
-        <v>2610.26</v>
+        <v>4158.41</v>
       </c>
       <c r="G40" t="n">
-        <v>7119.83</v>
+        <v>11730.91</v>
       </c>
       <c r="H40" t="n">
-        <v>1120.67</v>
+        <v>1859.25</v>
       </c>
       <c r="I40" t="n">
-        <v>17659.72</v>
+        <v>28627.49</v>
       </c>
       <c r="J40" t="n">
-        <v>12003.11</v>
+        <v>19701.23</v>
       </c>
       <c r="K40" t="n">
-        <v>7363.88</v>
+        <v>12577.25</v>
       </c>
       <c r="L40" t="n">
-        <v>409.43</v>
+        <v>639.0599999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>3350.58</v>
+        <v>5385.06</v>
       </c>
       <c r="N40" t="n">
-        <v>960.3</v>
+        <v>1771.67</v>
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
-        <v>119770.37</v>
+        <v>203263.34</v>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>3193.9</v>
+        <v>5960.77</v>
       </c>
       <c r="S40" t="n">
-        <v>1050.87</v>
+        <v>1842.46</v>
       </c>
       <c r="T40" t="n">
-        <v>560.21</v>
+        <v>837.59</v>
       </c>
       <c r="U40" t="n">
-        <v>4874.78</v>
+        <v>8657.620000000001</v>
       </c>
       <c r="V40" t="n">
-        <v>327.69</v>
+        <v>606.58</v>
+      </c>
+      <c r="W40" t="n">
+        <v>586.5600000000001</v>
+      </c>
+      <c r="X40" t="n">
+        <v>55991.62999999999</v>
+      </c>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>1858.99</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>1548.15</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>4611.08</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>738.5799999999999</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>10967.77</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>7698.119999999999</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>5213.37</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>229.6299999999999</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>2034.48</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>811.3700000000001</v>
+      </c>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="n">
+        <v>83492.97</v>
+      </c>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="n">
+        <v>2766.87</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>791.5900000000001</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>277.38</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>3782.840000000001</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>278.89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2013年第四季度</t>
+          <t>2013年D</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2715,11 +4659,68 @@
       <c r="V41" t="n">
         <v>1130.85</v>
       </c>
+      <c r="W41" t="n">
+        <v>1148.56</v>
+      </c>
+      <c r="X41" t="n">
+        <v>125290.47</v>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>3741.83</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>3933.84</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>10708.19</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>1669.08</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>23698.9</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>15116.43</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>12171.28</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>767.3099999999999</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>5523.749999999999</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1614.13</v>
+      </c>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="n">
+        <v>185981.59</v>
+      </c>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="n">
+        <v>4840.08</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>1548.16</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>973.0099999999999</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>7482.17</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>524.2699999999999</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2779,139 +4780,310 @@
       <c r="V42" t="n">
         <v>179.95</v>
       </c>
+      <c r="W42" t="n">
+        <v>391.8</v>
+      </c>
+      <c r="X42" t="n">
+        <v>35437.2</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>1057.22</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>1164.85</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>3322.53</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>498.65</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>8212.85</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>5328.73</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>3346.11</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>212.96</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1434.34</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>461.64</v>
+      </c>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="n">
+        <v>54720.16</v>
+      </c>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="n">
+        <v>1505.39</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>537.37</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>303.42</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>2307.46</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>179.95</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1443</v>
+        <v>858.66</v>
       </c>
       <c r="C43" t="n">
-        <v>150980.78</v>
+        <v>90092.37</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
-        <v>4475.44</v>
+        <v>2463.08</v>
       </c>
       <c r="F43" t="n">
-        <v>4496.27</v>
+        <v>2689.96</v>
       </c>
       <c r="G43" t="n">
-        <v>12678.56</v>
+        <v>7572.42</v>
       </c>
       <c r="H43" t="n">
-        <v>2025.78</v>
+        <v>1215.06</v>
       </c>
       <c r="I43" t="n">
-        <v>30514.88</v>
+        <v>18456.55</v>
       </c>
       <c r="J43" t="n">
-        <v>20125.57</v>
+        <v>12171.85</v>
       </c>
       <c r="K43" t="n">
-        <v>14542.6</v>
+        <v>8332.42</v>
       </c>
       <c r="L43" t="n">
-        <v>854.7</v>
+        <v>520.66</v>
       </c>
       <c r="M43" t="n">
-        <v>6700.72</v>
+        <v>3761</v>
       </c>
       <c r="N43" t="n">
-        <v>1828.55</v>
+        <v>1168.69</v>
       </c>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
-        <v>226032.77</v>
+        <v>134666.83</v>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>6227.12</v>
+        <v>3498.12</v>
       </c>
       <c r="S43" t="n">
-        <v>2100.45</v>
+        <v>1264.15</v>
       </c>
       <c r="T43" t="n">
-        <v>1023.31</v>
+        <v>687.13</v>
       </c>
       <c r="U43" t="n">
-        <v>9276.219999999999</v>
+        <v>5400.3</v>
       </c>
       <c r="V43" t="n">
-        <v>683.2</v>
+        <v>419</v>
+      </c>
+      <c r="W43" t="n">
+        <v>466.86</v>
+      </c>
+      <c r="X43" t="n">
+        <v>54655.17</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>1405.86</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>1525.11</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>4249.889999999999</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>716.41</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>10243.7</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>6843.120000000001</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>4986.309999999999</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>307.6999999999999</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>2326.66</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>707.0500000000001</v>
+      </c>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="n">
+        <v>79946.66999999998</v>
+      </c>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="n">
+        <v>1992.73</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>726.7800000000001</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>383.71</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>3092.84</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>239.05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>858.66</v>
+        <v>1443</v>
       </c>
       <c r="C44" t="n">
-        <v>90092.37</v>
+        <v>150980.78</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
-        <v>2463.08</v>
+        <v>4475.44</v>
       </c>
       <c r="F44" t="n">
-        <v>2689.96</v>
+        <v>4496.27</v>
       </c>
       <c r="G44" t="n">
-        <v>7572.42</v>
+        <v>12678.56</v>
       </c>
       <c r="H44" t="n">
-        <v>1215.06</v>
+        <v>2025.78</v>
       </c>
       <c r="I44" t="n">
-        <v>18456.55</v>
+        <v>30514.88</v>
       </c>
       <c r="J44" t="n">
-        <v>12171.85</v>
+        <v>20125.57</v>
       </c>
       <c r="K44" t="n">
-        <v>8332.42</v>
+        <v>14542.6</v>
       </c>
       <c r="L44" t="n">
-        <v>520.66</v>
+        <v>854.7</v>
       </c>
       <c r="M44" t="n">
-        <v>3761</v>
+        <v>6700.72</v>
       </c>
       <c r="N44" t="n">
-        <v>1168.69</v>
+        <v>1828.55</v>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
-        <v>134666.83</v>
+        <v>226032.77</v>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>3498.12</v>
+        <v>6227.12</v>
       </c>
       <c r="S44" t="n">
-        <v>1264.15</v>
+        <v>2100.45</v>
       </c>
       <c r="T44" t="n">
-        <v>687.13</v>
+        <v>1023.31</v>
       </c>
       <c r="U44" t="n">
-        <v>5400.3</v>
+        <v>9276.219999999999</v>
       </c>
       <c r="V44" t="n">
-        <v>419</v>
+        <v>683.2</v>
+      </c>
+      <c r="W44" t="n">
+        <v>584.34</v>
+      </c>
+      <c r="X44" t="n">
+        <v>60888.41</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>2012.36</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>1806.31</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>5106.139999999999</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>810.72</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>12058.33</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>7953.719999999999</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>6210.18</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>334.0400000000001</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>2939.72</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>659.8599999999999</v>
+      </c>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="n">
+        <v>91365.94</v>
+      </c>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="n">
+        <v>2729</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>836.2999999999997</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>336.1799999999999</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>3875.919999999999</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>264.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2014年第四季度</t>
+          <t>2014年D</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2971,11 +5143,68 @@
       <c r="V45" t="n">
         <v>1418.4</v>
       </c>
+      <c r="W45" t="n">
+        <v>1422.3</v>
+      </c>
+      <c r="X45" t="n">
+        <v>135310.82</v>
+      </c>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>4467.06</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4027.43</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>10358.84</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1727.82</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>23974.32</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>15687.03</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>13099.7</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>808.3999999999999</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>5564.88</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1524.25</v>
+      </c>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="n">
+        <v>197089.93</v>
+      </c>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="n">
+        <v>4620.38</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>1772.55</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>775.99</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>7124.180000000002</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>735.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3035,139 +5264,310 @@
       <c r="V46" t="n">
         <v>201.38</v>
       </c>
+      <c r="W46" t="n">
+        <v>343.96</v>
+      </c>
+      <c r="X46" t="n">
+        <v>39125.51</v>
+      </c>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>1443.32</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>1196.06</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>3559.1</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>545.54</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>8455.950000000001</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>5334.44</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>4012.05</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>237.73</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1622.02</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>507.6</v>
+      </c>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="n">
+        <v>59782.9</v>
+      </c>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="n">
+        <v>1641.54</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>652.4400000000001</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>250.75</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2437.83</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>201.38</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1392.34</v>
+        <v>888.02</v>
       </c>
       <c r="C47" t="n">
-        <v>156126.16</v>
+        <v>92365.48</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
-        <v>4944.36</v>
+        <v>2863.76</v>
       </c>
       <c r="F47" t="n">
-        <v>4617.21</v>
+        <v>2766.22</v>
       </c>
       <c r="G47" t="n">
-        <v>12501.9</v>
+        <v>7786.73</v>
       </c>
       <c r="H47" t="n">
-        <v>1856.99</v>
+        <v>1208.35</v>
       </c>
       <c r="I47" t="n">
-        <v>29590.09</v>
+        <v>18434.9</v>
       </c>
       <c r="J47" t="n">
-        <v>19557.81</v>
+        <v>11985.3</v>
       </c>
       <c r="K47" t="n">
-        <v>15574.91</v>
+        <v>9323.309999999999</v>
       </c>
       <c r="L47" t="n">
-        <v>1105.16</v>
+        <v>828.12</v>
       </c>
       <c r="M47" t="n">
-        <v>6924.01</v>
+        <v>4041.31</v>
       </c>
       <c r="N47" t="n">
-        <v>1935.33</v>
+        <v>1198.99</v>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
-        <v>231005.43</v>
+        <v>138375.48</v>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>6325.34</v>
+        <v>3614.6</v>
       </c>
       <c r="S47" t="n">
-        <v>2165.43</v>
+        <v>1415.63</v>
       </c>
       <c r="T47" t="n">
-        <v>855.0700000000001</v>
+        <v>572.25</v>
       </c>
       <c r="U47" t="n">
-        <v>9037.4</v>
+        <v>5395.19</v>
       </c>
       <c r="V47" t="n">
-        <v>666.04</v>
+        <v>391.13</v>
+      </c>
+      <c r="W47" t="n">
+        <v>544.0599999999999</v>
+      </c>
+      <c r="X47" t="n">
+        <v>53239.96999999999</v>
+      </c>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>1420.44</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>1570.16</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>4227.629999999999</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>662.8099999999999</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>9978.950000000001</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>6650.86</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>5311.259999999999</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>590.39</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>2419.29</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>691.39</v>
+      </c>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="n">
+        <v>78592.58000000002</v>
+      </c>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="n">
+        <v>1973.06</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>763.1900000000001</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>321.5</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2957.36</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>189.75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>888.02</v>
+        <v>1392.34</v>
       </c>
       <c r="C48" t="n">
-        <v>92365.48</v>
+        <v>156126.16</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
-        <v>2863.76</v>
+        <v>4944.36</v>
       </c>
       <c r="F48" t="n">
-        <v>2766.22</v>
+        <v>4617.21</v>
       </c>
       <c r="G48" t="n">
-        <v>7786.73</v>
+        <v>12501.9</v>
       </c>
       <c r="H48" t="n">
-        <v>1208.35</v>
+        <v>1856.99</v>
       </c>
       <c r="I48" t="n">
-        <v>18434.9</v>
+        <v>29590.09</v>
       </c>
       <c r="J48" t="n">
-        <v>11985.3</v>
+        <v>19557.81</v>
       </c>
       <c r="K48" t="n">
-        <v>9323.309999999999</v>
+        <v>15574.91</v>
       </c>
       <c r="L48" t="n">
-        <v>828.12</v>
+        <v>1105.16</v>
       </c>
       <c r="M48" t="n">
-        <v>4041.31</v>
+        <v>6924.01</v>
       </c>
       <c r="N48" t="n">
-        <v>1198.99</v>
+        <v>1935.33</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
-        <v>138375.48</v>
+        <v>231005.43</v>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>3614.6</v>
+        <v>6325.34</v>
       </c>
       <c r="S48" t="n">
-        <v>1415.63</v>
+        <v>2165.43</v>
       </c>
       <c r="T48" t="n">
-        <v>572.25</v>
+        <v>855.0700000000001</v>
       </c>
       <c r="U48" t="n">
-        <v>5395.19</v>
+        <v>9037.4</v>
       </c>
       <c r="V48" t="n">
-        <v>391.13</v>
+        <v>666.04</v>
+      </c>
+      <c r="W48" t="n">
+        <v>504.3199999999999</v>
+      </c>
+      <c r="X48" t="n">
+        <v>63760.68000000001</v>
+      </c>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>2080.599999999999</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1850.99</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>4715.17</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>648.6400000000001</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>11155.19</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>7572.510000000002</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>6251.6</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>277.0400000000001</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2882.7</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>736.3399999999999</v>
+      </c>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="n">
+        <v>92629.94999999998</v>
+      </c>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="n">
+        <v>2710.74</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>749.7999999999997</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>282.8200000000001</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>3642.21</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>274.91</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2015年第四季度</t>
+          <t>2015年D</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3227,11 +5627,68 @@
       <c r="V49" t="n">
         <v>1068.8</v>
       </c>
+      <c r="W49" t="n">
+        <v>1311.26</v>
+      </c>
+      <c r="X49" t="n">
+        <v>127895.84</v>
+      </c>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>4524.54</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>3934.589999999999</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>10713.4</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1679.31</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>22980.71</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>15269.99</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>13147.49</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>796.6399999999999</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>6014.889999999999</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1408.67</v>
+      </c>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="n">
+        <v>189797.17</v>
+      </c>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="n">
+        <v>5097.66</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>2256.670000000001</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>780.2299999999999</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>7557.199999999999</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>402.76</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3291,139 +5748,310 @@
       <c r="V50" t="n">
         <v>179.52</v>
       </c>
+      <c r="W50" t="n">
+        <v>313.85</v>
+      </c>
+      <c r="X50" t="n">
+        <v>41847.22</v>
+      </c>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>1238.54</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1168.81</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>3565.56</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>540.23</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>8202.200000000001</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>4992.19</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>4055.98</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>226.55</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1923.85</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>487.52</v>
+      </c>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="n">
+        <v>62283.6</v>
+      </c>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="n">
+        <v>1734.17</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>553.11</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>302.46</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2576.86</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>179.52</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年B</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1385.06999999999</v>
+        <v>762.96</v>
       </c>
       <c r="C51" t="n">
-        <v>156496.2</v>
+        <v>97038.78</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
-        <v>5600.59</v>
+        <v>3351.58</v>
       </c>
       <c r="F51" t="n">
-        <v>5117.06</v>
+        <v>3101.32</v>
       </c>
       <c r="G51" t="n">
-        <v>13310.12</v>
+        <v>8408.35</v>
       </c>
       <c r="H51" t="n">
-        <v>2235.63</v>
+        <v>1294.99</v>
       </c>
       <c r="I51" t="n">
-        <v>28346.95</v>
+        <v>17937.07</v>
       </c>
       <c r="J51" t="n">
-        <v>18611.59</v>
+        <v>11491.01</v>
       </c>
       <c r="K51" t="n">
-        <v>16710.8899999999</v>
+        <v>10599.02</v>
       </c>
       <c r="L51" t="n">
-        <v>951.4299999999999</v>
+        <v>549.88</v>
       </c>
       <c r="M51" t="n">
-        <v>7778.19</v>
+        <v>5038.51</v>
       </c>
       <c r="N51" t="n">
-        <v>1769.03999999999</v>
+        <v>1256.64</v>
       </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
-        <v>234037.779999999</v>
+        <v>145534.41</v>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>7080.48999999999</v>
+        <v>4189.92</v>
       </c>
       <c r="S51" t="n">
-        <v>2289.26</v>
+        <v>1552.91</v>
       </c>
       <c r="T51" t="n">
-        <v>1066.09999999999</v>
+        <v>649.09</v>
       </c>
       <c r="U51" t="n">
-        <v>10382.2299999999</v>
+        <v>6134</v>
       </c>
       <c r="V51" t="n">
-        <v>611.639999999999</v>
+        <v>402.43</v>
+      </c>
+      <c r="W51" t="n">
+        <v>449.11</v>
+      </c>
+      <c r="X51" t="n">
+        <v>55191.56</v>
+      </c>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
+        <v>2113.04</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>1932.51</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>4842.790000000001</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>754.76</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>9734.869999999999</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>6498.820000000001</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>6543.040000000001</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>323.33</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>3114.66</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>769.1200000000001</v>
+      </c>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="n">
+        <v>83250.81</v>
+      </c>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="n">
+        <v>2455.75</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>999.8000000000001</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>346.6300000000001</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>3557.14</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>222.91</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2016年第二季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>762.96</v>
+        <v>1385.06999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>97038.78</v>
+        <v>156496.2</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>3351.58</v>
+        <v>5600.59</v>
       </c>
       <c r="F52" t="n">
-        <v>3101.32</v>
+        <v>5117.06</v>
       </c>
       <c r="G52" t="n">
-        <v>8408.35</v>
+        <v>13310.12</v>
       </c>
       <c r="H52" t="n">
-        <v>1294.99</v>
+        <v>2235.63</v>
       </c>
       <c r="I52" t="n">
-        <v>17937.07</v>
+        <v>28346.95</v>
       </c>
       <c r="J52" t="n">
-        <v>11491.01</v>
+        <v>18611.59</v>
       </c>
       <c r="K52" t="n">
-        <v>10599.02</v>
+        <v>16710.8899999999</v>
       </c>
       <c r="L52" t="n">
-        <v>549.88</v>
+        <v>951.4299999999999</v>
       </c>
       <c r="M52" t="n">
-        <v>5038.51</v>
+        <v>7778.19</v>
       </c>
       <c r="N52" t="n">
-        <v>1256.64</v>
+        <v>1769.03999999999</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
-        <v>145534.41</v>
+        <v>234037.779999999</v>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>4189.92</v>
+        <v>7080.48999999999</v>
       </c>
       <c r="S52" t="n">
-        <v>1552.91</v>
+        <v>2289.26</v>
       </c>
       <c r="T52" t="n">
-        <v>649.09</v>
+        <v>1066.09999999999</v>
       </c>
       <c r="U52" t="n">
-        <v>6134</v>
+        <v>10382.2299999999</v>
       </c>
       <c r="V52" t="n">
-        <v>402.43</v>
+        <v>611.639999999999</v>
+      </c>
+      <c r="W52" t="n">
+        <v>622.1099999999899</v>
+      </c>
+      <c r="X52" t="n">
+        <v>59457.42000000001</v>
+      </c>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>2249.01</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2015.74</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>4901.77</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>940.6400000000001</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>10409.88</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>7120.58</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>6111.869999999901</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>401.55</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>2739.679999999999</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>512.3999999999899</v>
+      </c>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="n">
+        <v>88503.36999999901</v>
+      </c>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="n">
+        <v>2890.56999999999</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>736.3500000000001</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>417.0099999999899</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>4248.2299999999</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>209.209999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2016年第四季度</t>
+          <t>2016年D</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3483,11 +6111,68 @@
       <c r="V53" t="n">
         <v>1052.33</v>
       </c>
+      <c r="W53" t="n">
+        <v>1419.97000000001</v>
+      </c>
+      <c r="X53" t="n">
+        <v>127530.4</v>
+      </c>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>4353.92</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>4710.48</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>10229.29</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1544.32</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>21576.81</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>14701.61</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>13607.4600000001</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>883.16</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>6476.21</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1453.48000000001</v>
+      </c>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="n">
+        <v>188337.870000001</v>
+      </c>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="n">
+        <v>5081.050000000011</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>1953.67</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>684.4300000000101</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>7309.790000000101</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>440.690000000001</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3547,139 +6232,310 @@
       <c r="V54" t="n">
         <v>169.54</v>
       </c>
+      <c r="W54" t="n">
+        <v>468.38</v>
+      </c>
+      <c r="X54" t="n">
+        <v>43019.22</v>
+      </c>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>1597.62</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>1500.88</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3804.07</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>629.5700000000001</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>8360.35</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>4768.8</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>4779.34</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>280.37</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>2211.59</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>520.21</v>
+      </c>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="n">
+        <v>65575.39</v>
+      </c>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="n">
+        <v>2037.26</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>725.25</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>251.07</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>2917.9</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>169.54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2017年第三季度</t>
+          <t>2017年B</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1736.15</v>
+        <v>1025.47</v>
       </c>
       <c r="C55" t="n">
-        <v>157955.06</v>
+        <v>99286.86</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
-        <v>5709.38</v>
+        <v>3446.65</v>
       </c>
       <c r="F55" t="n">
-        <v>4991.6</v>
+        <v>3268.26</v>
       </c>
       <c r="G55" t="n">
-        <v>13418.79</v>
+        <v>8443.93</v>
       </c>
       <c r="H55" t="n">
-        <v>2327.69</v>
+        <v>1428.92</v>
       </c>
       <c r="I55" t="n">
-        <v>28492.52</v>
+        <v>18197.51</v>
       </c>
       <c r="J55" t="n">
-        <v>17987.96</v>
+        <v>11226.44</v>
       </c>
       <c r="K55" t="n">
-        <v>17093.67</v>
+        <v>10753.44</v>
       </c>
       <c r="L55" t="n">
-        <v>1466.09</v>
+        <v>863.74</v>
       </c>
       <c r="M55" t="n">
-        <v>7586.48</v>
+        <v>4929.53</v>
       </c>
       <c r="N55" t="n">
-        <v>1799.52</v>
+        <v>1176.78</v>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
-        <v>237094.43</v>
+        <v>149211.37</v>
       </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>7693.41</v>
+        <v>4648.03</v>
       </c>
       <c r="S55" t="n">
-        <v>2398.79</v>
+        <v>1515.6</v>
       </c>
       <c r="T55" t="n">
-        <v>986.76</v>
+        <v>643.35</v>
       </c>
       <c r="U55" t="n">
-        <v>11007.86</v>
+        <v>6720.29</v>
       </c>
       <c r="V55" t="n">
-        <v>532.2</v>
+        <v>336.74</v>
+      </c>
+      <c r="W55" t="n">
+        <v>557.09</v>
+      </c>
+      <c r="X55" t="n">
+        <v>56267.64</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>1849.03</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>1767.38</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>4639.860000000001</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>799.35</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>9837.159999999998</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>6457.64</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>5974.1</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>583.37</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>2717.94</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>656.5699999999999</v>
+      </c>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="n">
+        <v>83635.98</v>
+      </c>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="n">
+        <v>2610.77</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>790.3499999999999</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>392.28</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>3802.39</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>167.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2017年第二季度</t>
+          <t>2017年C</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1025.47</v>
+        <v>1736.15</v>
       </c>
       <c r="C56" t="n">
-        <v>99286.86</v>
+        <v>157955.06</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
-        <v>3446.65</v>
+        <v>5709.38</v>
       </c>
       <c r="F56" t="n">
-        <v>3268.26</v>
+        <v>4991.6</v>
       </c>
       <c r="G56" t="n">
-        <v>8443.93</v>
+        <v>13418.79</v>
       </c>
       <c r="H56" t="n">
-        <v>1428.92</v>
+        <v>2327.69</v>
       </c>
       <c r="I56" t="n">
-        <v>18197.51</v>
+        <v>28492.52</v>
       </c>
       <c r="J56" t="n">
-        <v>11226.44</v>
+        <v>17987.96</v>
       </c>
       <c r="K56" t="n">
-        <v>10753.44</v>
+        <v>17093.67</v>
       </c>
       <c r="L56" t="n">
-        <v>863.74</v>
+        <v>1466.09</v>
       </c>
       <c r="M56" t="n">
-        <v>4929.53</v>
+        <v>7586.48</v>
       </c>
       <c r="N56" t="n">
-        <v>1176.78</v>
+        <v>1799.52</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
-        <v>149211.37</v>
+        <v>237094.43</v>
       </c>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>4648.03</v>
+        <v>7693.41</v>
       </c>
       <c r="S56" t="n">
-        <v>1515.6</v>
+        <v>2398.79</v>
       </c>
       <c r="T56" t="n">
-        <v>643.35</v>
+        <v>986.76</v>
       </c>
       <c r="U56" t="n">
-        <v>6720.29</v>
+        <v>11007.86</v>
       </c>
       <c r="V56" t="n">
-        <v>336.74</v>
+        <v>532.2</v>
+      </c>
+      <c r="W56" t="n">
+        <v>710.6800000000001</v>
+      </c>
+      <c r="X56" t="n">
+        <v>58668.2</v>
+      </c>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>2262.73</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>1723.34</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>4974.860000000001</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>898.77</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>10295.01</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>6761.519999999999</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>6340.229999999998</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>602.3499999999999</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2656.95</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>622.74</v>
+      </c>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="n">
+        <v>87883.06</v>
+      </c>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="n">
+        <v>3045.38</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>883.1900000000001</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>343.41</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>4287.570000000001</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>195.46</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2017年第四季度</t>
+          <t>2017年D</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3739,11 +6595,68 @@
       <c r="V57" t="n">
         <v>800.11</v>
       </c>
+      <c r="W57" t="n">
+        <v>1368.57</v>
+      </c>
+      <c r="X57" t="n">
+        <v>122418.16</v>
+      </c>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>4820.69</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>4804.789999999999</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>9905.139999999999</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1580.98</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>21218.72</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>13731.82</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>12506.96</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>800.2700000000002</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>5467.300000000001</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1150.8</v>
+      </c>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="n">
+        <v>181979.63</v>
+      </c>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="n">
+        <v>5416.41</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>2008.24</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>751.6700000000001</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>7749.059999999998</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>267.91</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2018年第一季度</t>
+          <t>2018年A</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3803,139 +6716,310 @@
       <c r="V58" t="n">
         <v>185.67</v>
       </c>
+      <c r="W58" t="n">
+        <v>528.52</v>
+      </c>
+      <c r="X58" t="n">
+        <v>45736.47</v>
+      </c>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>1837.74</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>1482.84</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>3780.02</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>672.0599999999999</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>8941.49</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>5072.8</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>4773.25</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>250.76</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2048.89</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>450.2</v>
+      </c>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="n">
+        <v>69007.32000000001</v>
+      </c>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="n">
+        <v>2032.18</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>798.38</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>262.11</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2966.35</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>185.67</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2018年第三季度</t>
+          <t>2018年B</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1747.91</v>
+        <v>989.9</v>
       </c>
       <c r="C59" t="n">
-        <v>158029.27</v>
+        <v>98217.89999999999</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
-        <v>5944.08</v>
+        <v>3834.35</v>
       </c>
       <c r="F59" t="n">
-        <v>5332.01</v>
+        <v>3238.33</v>
       </c>
       <c r="G59" t="n">
-        <v>12336.81</v>
+        <v>8005.48</v>
       </c>
       <c r="H59" t="n">
-        <v>2373.6</v>
+        <v>1561.03</v>
       </c>
       <c r="I59" t="n">
-        <v>30078.65</v>
+        <v>19509.5</v>
       </c>
       <c r="J59" t="n">
-        <v>18987.07</v>
+        <v>11923.61</v>
       </c>
       <c r="K59" t="n">
-        <v>16676.34</v>
+        <v>10988.85</v>
       </c>
       <c r="L59" t="n">
-        <v>1051.85</v>
+        <v>652.71</v>
       </c>
       <c r="M59" t="n">
-        <v>7384.36</v>
+        <v>4952.77</v>
       </c>
       <c r="N59" t="n">
-        <v>1599.65</v>
+        <v>1095.99</v>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
-        <v>237349.57</v>
+        <v>149074.73</v>
       </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="n">
-        <v>7474.57</v>
+        <v>4464.13</v>
       </c>
       <c r="S59" t="n">
-        <v>2384.4</v>
+        <v>1543.79</v>
       </c>
       <c r="T59" t="n">
-        <v>916.02</v>
+        <v>555.8200000000001</v>
       </c>
       <c r="U59" t="n">
-        <v>10764.19</v>
+        <v>6580.97</v>
       </c>
       <c r="V59" t="n">
-        <v>696.4</v>
+        <v>453.03</v>
+      </c>
+      <c r="W59" t="n">
+        <v>461.38</v>
+      </c>
+      <c r="X59" t="n">
+        <v>52481.42999999999</v>
+      </c>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>1996.61</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>1755.49</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>4225.459999999999</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>888.97</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>10568.01</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>6850.81</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>6215.6</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>401.95</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2903.880000000001</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>645.79</v>
+      </c>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="n">
+        <v>80067.41</v>
+      </c>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="n">
+        <v>2431.95</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>745.41</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>293.71</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>3614.62</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>267.36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2018年第二季度</t>
+          <t>2018年C</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>989.9</v>
+        <v>1747.91</v>
       </c>
       <c r="C60" t="n">
-        <v>98217.89999999999</v>
+        <v>158029.27</v>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
-        <v>3834.35</v>
+        <v>5944.08</v>
       </c>
       <c r="F60" t="n">
-        <v>3238.33</v>
+        <v>5332.01</v>
       </c>
       <c r="G60" t="n">
-        <v>8005.48</v>
+        <v>12336.81</v>
       </c>
       <c r="H60" t="n">
-        <v>1561.03</v>
+        <v>2373.6</v>
       </c>
       <c r="I60" t="n">
-        <v>19509.5</v>
+        <v>30078.65</v>
       </c>
       <c r="J60" t="n">
-        <v>11923.61</v>
+        <v>18987.07</v>
       </c>
       <c r="K60" t="n">
-        <v>10988.85</v>
+        <v>16676.34</v>
       </c>
       <c r="L60" t="n">
-        <v>652.71</v>
+        <v>1051.85</v>
       </c>
       <c r="M60" t="n">
-        <v>4952.77</v>
+        <v>7384.36</v>
       </c>
       <c r="N60" t="n">
-        <v>1095.99</v>
+        <v>1599.65</v>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
-        <v>149074.73</v>
+        <v>237349.57</v>
       </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="n">
-        <v>4464.13</v>
+        <v>7474.57</v>
       </c>
       <c r="S60" t="n">
-        <v>1543.79</v>
+        <v>2384.4</v>
       </c>
       <c r="T60" t="n">
-        <v>555.8200000000001</v>
+        <v>916.02</v>
       </c>
       <c r="U60" t="n">
-        <v>6580.97</v>
+        <v>10764.19</v>
       </c>
       <c r="V60" t="n">
-        <v>453.03</v>
+        <v>696.4</v>
+      </c>
+      <c r="W60" t="n">
+        <v>758.0100000000001</v>
+      </c>
+      <c r="X60" t="n">
+        <v>59811.37</v>
+      </c>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>2109.73</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>2093.68</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>4331.33</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>812.5699999999999</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>10569.15</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>7063.459999999999</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>5687.49</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>399.1399999999999</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2431.589999999999</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>503.6600000000001</v>
+      </c>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="n">
+        <v>88274.84</v>
+      </c>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="n">
+        <v>3010.44</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>840.6100000000001</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>360.1999999999999</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>4183.22</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>243.37</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2018年第四季度</t>
+          <t>2018年D</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3995,11 +7079,68 @@
       <c r="V61" t="n">
         <v>959.78</v>
       </c>
+      <c r="W61" t="n">
+        <v>1361.16</v>
+      </c>
+      <c r="X61" t="n">
+        <v>120380.69</v>
+      </c>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>4401.290000000001</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4161.940000000001</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>8616.039999999999</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1708.06</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>21004.03</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>13176.19</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>11513.08</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>798.3700000000001</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>4976.410000000001</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1073.64</v>
+      </c>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="n">
+        <v>176159.22</v>
+      </c>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="n">
+        <v>5240.559999999999</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>1642.05</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>531.5899999999999</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>7480.210000000001</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>263.38</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2019年第一季度</t>
+          <t>2019年A</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4059,139 +7200,310 @@
       <c r="V62" t="n">
         <v>134.9</v>
       </c>
+      <c r="W62" t="n">
+        <v>358.12</v>
+      </c>
+      <c r="X62" t="n">
+        <v>43283.97</v>
+      </c>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>1893.41</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>1424.14</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>3983.37</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>701.73</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>9359.34</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>5318.96</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>4810.37</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>404.55</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>1915.06</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>462.44</v>
+      </c>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="n">
+        <v>66682.95</v>
+      </c>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="n">
+        <v>1831.46</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>637.95</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>292.51</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2825.7</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>134.9</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2019年第三季度</t>
+          <t>2019年B</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1211.21</v>
+        <v>767.74</v>
       </c>
       <c r="C63" t="n">
-        <v>153825.33</v>
+        <v>96269.17999999999</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
-        <v>6487.31</v>
+        <v>3931</v>
       </c>
       <c r="F63" t="n">
-        <v>5031.56</v>
+        <v>2862.07</v>
       </c>
       <c r="G63" t="n">
-        <v>11157.47</v>
+        <v>7489.92</v>
       </c>
       <c r="H63" t="n">
-        <v>2367.46</v>
+        <v>1338.58</v>
       </c>
       <c r="I63" t="n">
-        <v>27962.89</v>
+        <v>18142.47</v>
       </c>
       <c r="J63" t="n">
-        <v>18086.38</v>
+        <v>11143.97</v>
       </c>
       <c r="K63" t="n">
-        <v>16939.72</v>
+        <v>9711.209999999999</v>
       </c>
       <c r="L63" t="n">
-        <v>1280.19</v>
+        <v>767.72</v>
       </c>
       <c r="M63" t="n">
-        <v>7182.53</v>
+        <v>3852.19</v>
       </c>
       <c r="N63" t="n">
-        <v>1589.04</v>
+        <v>887.52</v>
       </c>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
-        <v>228999.35</v>
+        <v>142394.45</v>
       </c>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="n">
-        <v>6899.29</v>
+        <v>3806.67</v>
       </c>
       <c r="S63" t="n">
-        <v>2560.95</v>
+        <v>1376.71</v>
       </c>
       <c r="T63" t="n">
-        <v>1043.86</v>
+        <v>629.89</v>
       </c>
       <c r="U63" t="n">
-        <v>10310.61</v>
+        <v>5775.15</v>
       </c>
       <c r="V63" t="n">
-        <v>400.65</v>
+        <v>272.78</v>
+      </c>
+      <c r="W63" t="n">
+        <v>409.62</v>
+      </c>
+      <c r="X63" t="n">
+        <v>52985.20999999999</v>
+      </c>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>2037.59</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>1437.93</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>3506.55</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>636.8499999999999</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>8783.130000000001</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>5825.009999999999</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>4900.839999999999</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>363.17</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1937.13</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>425.08</v>
+      </c>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="n">
+        <v>75711.50000000001</v>
+      </c>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="n">
+        <v>1975.21</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>738.76</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>337.38</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>2949.45</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>137.88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2019年第二季度</t>
+          <t>2019年C</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>767.74</v>
+        <v>1211.21</v>
       </c>
       <c r="C64" t="n">
-        <v>96269.17999999999</v>
+        <v>153825.33</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
-        <v>3931</v>
+        <v>6487.31</v>
       </c>
       <c r="F64" t="n">
-        <v>2862.07</v>
+        <v>5031.56</v>
       </c>
       <c r="G64" t="n">
-        <v>7489.92</v>
+        <v>11157.47</v>
       </c>
       <c r="H64" t="n">
-        <v>1338.58</v>
+        <v>2367.46</v>
       </c>
       <c r="I64" t="n">
-        <v>18142.47</v>
+        <v>27962.89</v>
       </c>
       <c r="J64" t="n">
-        <v>11143.97</v>
+        <v>18086.38</v>
       </c>
       <c r="K64" t="n">
-        <v>9711.209999999999</v>
+        <v>16939.72</v>
       </c>
       <c r="L64" t="n">
-        <v>767.72</v>
+        <v>1280.19</v>
       </c>
       <c r="M64" t="n">
-        <v>3852.19</v>
+        <v>7182.53</v>
       </c>
       <c r="N64" t="n">
-        <v>887.52</v>
+        <v>1589.04</v>
       </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
-        <v>142394.45</v>
+        <v>228999.35</v>
       </c>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="n">
-        <v>3806.67</v>
+        <v>6899.29</v>
       </c>
       <c r="S64" t="n">
-        <v>1376.71</v>
+        <v>2560.95</v>
       </c>
       <c r="T64" t="n">
-        <v>629.89</v>
+        <v>1043.86</v>
       </c>
       <c r="U64" t="n">
-        <v>5775.15</v>
+        <v>10310.61</v>
       </c>
       <c r="V64" t="n">
-        <v>272.78</v>
+        <v>400.65</v>
+      </c>
+      <c r="W64" t="n">
+        <v>443.47</v>
+      </c>
+      <c r="X64" t="n">
+        <v>57556.14999999999</v>
+      </c>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>2556.31</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2169.49</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3667.549999999999</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1028.88</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>9820.419999999998</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>6942.410000000002</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>7228.510000000002</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>512.47</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>3330.34</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>701.52</v>
+      </c>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="n">
+        <v>86604.89999999999</v>
+      </c>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="n">
+        <v>3092.62</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>1184.24</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>413.9699999999999</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>4535.460000000001</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>127.87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2019年第四季度</t>
+          <t>2019年D</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4251,11 +7563,68 @@
       <c r="V65" t="n">
         <v>629.55</v>
       </c>
+      <c r="W65" t="n">
+        <v>1148.26</v>
+      </c>
+      <c r="X65" t="n">
+        <v>117234.42</v>
+      </c>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="n">
+        <v>4685.71</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>4961.739999999999</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>8055.01</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1674.29</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>21136.51</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>13681.87</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>11667.28</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1090.04</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>4568.599999999999</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>1094.04</v>
+      </c>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="n">
+        <v>173411.55</v>
+      </c>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="n">
+        <v>5195.750000000001</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>1465.45</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>872.45</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>7742.489999999998</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>228.9</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2020年第一季度</t>
+          <t>2020年A</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4315,139 +7684,310 @@
       <c r="V66" t="n">
         <v>100.3237</v>
       </c>
+      <c r="W66" t="n">
+        <v>318.5821</v>
+      </c>
+      <c r="X66" t="n">
+        <v>32451.2069</v>
+      </c>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="n">
+        <v>1397.5275</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>1211.3748</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>2400.1194</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>519.7961</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>6430.0582</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3643.6363</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3071.4857</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>173.142</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1122.8642</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>277.6283</v>
+      </c>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="n">
+        <v>48464.5958</v>
+      </c>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="n">
+        <v>1321.8441</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>541.888</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>198.2405</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2039.8807</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>100.3237</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2020年第三季度</t>
+          <t>2020年B</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1409.3465</v>
+        <v>762.1126</v>
       </c>
       <c r="C67" t="n">
-        <v>140321.2502</v>
+        <v>84229.46890000001</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="n">
-        <v>5160.1813</v>
+        <v>3311.8279</v>
       </c>
       <c r="F67" t="n">
-        <v>5008.6809</v>
+        <v>3015.0249</v>
       </c>
       <c r="G67" t="n">
-        <v>8908.0252</v>
+        <v>5641.3984</v>
       </c>
       <c r="H67" t="n">
-        <v>2153.3144</v>
+        <v>1375.3185</v>
       </c>
       <c r="I67" t="n">
-        <v>26119.6203</v>
+        <v>15951.3347</v>
       </c>
       <c r="J67" t="n">
-        <v>16558.1307</v>
+        <v>9996.689399999999</v>
       </c>
       <c r="K67" t="n">
-        <v>13357.3952</v>
+        <v>8070.8195</v>
       </c>
       <c r="L67" t="n">
-        <v>1067.9326</v>
+        <v>696.1467</v>
       </c>
       <c r="M67" t="n">
-        <v>5592.1983</v>
+        <v>3119.9474</v>
       </c>
       <c r="N67" t="n">
-        <v>1197.1599</v>
+        <v>674.6245</v>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
-        <v>206955.9765</v>
+        <v>124498.9074</v>
       </c>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="n">
-        <v>6620.1986</v>
+        <v>3595.5989</v>
       </c>
       <c r="S67" t="n">
-        <v>2049.8897</v>
+        <v>1289.954</v>
       </c>
       <c r="T67" t="n">
-        <v>1008.2555</v>
+        <v>567.877</v>
       </c>
       <c r="U67" t="n">
-        <v>9781.7685</v>
+        <v>5538.7944</v>
       </c>
       <c r="V67" t="n">
-        <v>339.9231</v>
+        <v>268.273</v>
+      </c>
+      <c r="W67" t="n">
+        <v>443.5305</v>
+      </c>
+      <c r="X67" t="n">
+        <v>51778.262</v>
+      </c>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="n">
+        <v>1914.3004</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>1803.6501</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3241.279</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>855.5224000000001</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>9521.2765</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>6353.053099999999</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>4999.333799999999</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>523.0047</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1997.0832</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>396.9962</v>
+      </c>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="n">
+        <v>76034.31159999999</v>
+      </c>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="n">
+        <v>2273.7548</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>748.0659999999999</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>369.6365</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>3498.9137</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>167.9493</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2020年第二季度</t>
+          <t>2020年C</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>762.1126</v>
+        <v>1409.3465</v>
       </c>
       <c r="C68" t="n">
-        <v>84229.46890000001</v>
+        <v>140321.2502</v>
       </c>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
-        <v>3311.8279</v>
+        <v>5160.1813</v>
       </c>
       <c r="F68" t="n">
-        <v>3015.0249</v>
+        <v>5008.6809</v>
       </c>
       <c r="G68" t="n">
-        <v>5641.3984</v>
+        <v>8908.0252</v>
       </c>
       <c r="H68" t="n">
-        <v>1375.3185</v>
+        <v>2153.3144</v>
       </c>
       <c r="I68" t="n">
-        <v>15951.3347</v>
+        <v>26119.6203</v>
       </c>
       <c r="J68" t="n">
-        <v>9996.689399999999</v>
+        <v>16558.1307</v>
       </c>
       <c r="K68" t="n">
-        <v>8070.8195</v>
+        <v>13357.3952</v>
       </c>
       <c r="L68" t="n">
-        <v>696.1467</v>
+        <v>1067.9326</v>
       </c>
       <c r="M68" t="n">
-        <v>3119.9474</v>
+        <v>5592.1983</v>
       </c>
       <c r="N68" t="n">
-        <v>674.6245</v>
+        <v>1197.1599</v>
       </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
-        <v>124498.9074</v>
+        <v>206955.9765</v>
       </c>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="n">
-        <v>3595.5989</v>
+        <v>6620.1986</v>
       </c>
       <c r="S68" t="n">
-        <v>1289.954</v>
+        <v>2049.8897</v>
       </c>
       <c r="T68" t="n">
-        <v>567.877</v>
+        <v>1008.2555</v>
       </c>
       <c r="U68" t="n">
-        <v>5538.7944</v>
+        <v>9781.7685</v>
       </c>
       <c r="V68" t="n">
-        <v>268.273</v>
+        <v>339.9231</v>
+      </c>
+      <c r="W68" t="n">
+        <v>647.2339000000001</v>
+      </c>
+      <c r="X68" t="n">
+        <v>56091.7813</v>
+      </c>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="n">
+        <v>1848.3534</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>1993.656</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>3266.6268</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>777.9959000000001</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>10168.2856</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>6561.441300000002</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>5286.575700000001</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>371.7859000000001</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>2472.2509</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>522.5354000000001</v>
+      </c>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="n">
+        <v>82457.06909999999</v>
+      </c>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="n">
+        <v>3024.5997</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>759.9357000000002</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>440.3785</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>4242.9741</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>71.65009999999995</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2020年第四季度</t>
+          <t>2020年D</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -4507,11 +8047,68 @@
       <c r="V69" t="n">
         <v>601.9941</v>
       </c>
+      <c r="W69" t="n">
+        <v>1279.4112</v>
+      </c>
+      <c r="X69" t="n">
+        <v>118758.9633</v>
+      </c>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="n">
+        <v>6334.184999999999</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>5652.522099999999</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>7375.517400000001</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2189.474999999999</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>22412.7768</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>14888.832</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>12344.6289</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1082.0755</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>3505.9118</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1160.3856</v>
+      </c>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="n">
+        <v>177863.7723</v>
+      </c>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="n">
+        <v>5348.8102</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1641.2172</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>860.4502</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>8398.7354</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>262.071</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2021年第一季度</t>
+          <t>2021年A</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -4571,139 +8168,310 @@
       <c r="V70" t="n">
         <v>130.9081</v>
       </c>
+      <c r="W70" t="n">
+        <v>515.8898</v>
+      </c>
+      <c r="X70" t="n">
+        <v>40607.0643</v>
+      </c>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="n">
+        <v>1864.7149</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1739.7502</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2989.8743</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>804.0256000000001</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8594.0807</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>5066.4986</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>4018.6968</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>203.4014</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1464.6436</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>355.0288</v>
+      </c>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="n">
+        <v>61944.5282</v>
+      </c>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="n">
+        <v>1896.1615</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>545.3018</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>233.6832</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2933.8703</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>130.9081</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2021年第三季度</t>
+          <t>2021年B</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1489.7302</v>
+        <v>1009.2274</v>
       </c>
       <c r="C71" t="n">
-        <v>149212.0757</v>
+        <v>92335.3654</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
-        <v>6560.174</v>
+        <v>4340.8025</v>
       </c>
       <c r="F71" t="n">
-        <v>5942.2471</v>
+        <v>3752.7318</v>
       </c>
       <c r="G71" t="n">
-        <v>9153.2338</v>
+        <v>5992.9032</v>
       </c>
       <c r="H71" t="n">
-        <v>3078.7265</v>
+        <v>1825.4001</v>
       </c>
       <c r="I71" t="n">
-        <v>32747.8951</v>
+        <v>20601.8537</v>
       </c>
       <c r="J71" t="n">
-        <v>19290.3672</v>
+        <v>13400.4461</v>
       </c>
       <c r="K71" t="n">
-        <v>14535.951</v>
+        <v>9380.128000000001</v>
       </c>
       <c r="L71" t="n">
-        <v>997.0641000000001</v>
+        <v>644.4063</v>
       </c>
       <c r="M71" t="n">
-        <v>5323.1507</v>
+        <v>3224.6705</v>
       </c>
       <c r="N71" t="n">
-        <v>1262.2172</v>
+        <v>898.4168</v>
       </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
-        <v>227155.4664</v>
+        <v>140966.6022</v>
       </c>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="n">
-        <v>7733.0922</v>
+        <v>4039.9656</v>
       </c>
       <c r="S71" t="n">
-        <v>2297.0971</v>
+        <v>1471.6968</v>
       </c>
       <c r="T71" t="n">
-        <v>965.4177</v>
+        <v>557.3302</v>
       </c>
       <c r="U71" t="n">
-        <v>11777.2364</v>
+        <v>6422.6959</v>
       </c>
       <c r="V71" t="n">
-        <v>393.345</v>
+        <v>271.8319</v>
+      </c>
+      <c r="W71" t="n">
+        <v>493.3376</v>
+      </c>
+      <c r="X71" t="n">
+        <v>51728.3011</v>
+      </c>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="n">
+        <v>2476.0876</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>2012.9816</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>3003.0289</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1021.3745</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>12007.773</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>8333.947499999998</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>5361.431200000001</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>441.0049</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1760.0269</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>543.3879999999999</v>
+      </c>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="n">
+        <v>79022.07399999999</v>
+      </c>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="n">
+        <v>2143.8041</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>926.395</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>323.647</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>3488.8256</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>140.9238</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2021年第二季度</t>
+          <t>2021年C</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1009.2274</v>
+        <v>1489.7302</v>
       </c>
       <c r="C72" t="n">
-        <v>92335.3654</v>
+        <v>149212.0757</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
-        <v>4340.8025</v>
+        <v>6560.174</v>
       </c>
       <c r="F72" t="n">
-        <v>3752.7318</v>
+        <v>5942.2471</v>
       </c>
       <c r="G72" t="n">
-        <v>5992.9032</v>
+        <v>9153.2338</v>
       </c>
       <c r="H72" t="n">
-        <v>1825.4001</v>
+        <v>3078.7265</v>
       </c>
       <c r="I72" t="n">
-        <v>20601.8537</v>
+        <v>32747.8951</v>
       </c>
       <c r="J72" t="n">
-        <v>13400.4461</v>
+        <v>19290.3672</v>
       </c>
       <c r="K72" t="n">
-        <v>9380.128000000001</v>
+        <v>14535.951</v>
       </c>
       <c r="L72" t="n">
-        <v>644.4063</v>
+        <v>997.0641000000001</v>
       </c>
       <c r="M72" t="n">
-        <v>3224.6705</v>
+        <v>5323.1507</v>
       </c>
       <c r="N72" t="n">
-        <v>898.4168</v>
+        <v>1262.2172</v>
       </c>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
-        <v>140966.6022</v>
+        <v>227155.4664</v>
       </c>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="n">
-        <v>4039.9656</v>
+        <v>7733.0922</v>
       </c>
       <c r="S72" t="n">
-        <v>1471.6968</v>
+        <v>2297.0971</v>
       </c>
       <c r="T72" t="n">
-        <v>557.3302</v>
+        <v>965.4177</v>
       </c>
       <c r="U72" t="n">
-        <v>6422.6959</v>
+        <v>11777.2364</v>
       </c>
       <c r="V72" t="n">
-        <v>271.8319</v>
+        <v>393.345</v>
+      </c>
+      <c r="W72" t="n">
+        <v>480.5028</v>
+      </c>
+      <c r="X72" t="n">
+        <v>56876.71029999999</v>
+      </c>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="n">
+        <v>2219.3715</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>2189.5153</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>3160.3306</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1253.3264</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>12146.0414</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>5889.921100000001</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>5155.822999999999</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>352.6578000000001</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2098.4802</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>363.8004000000001</v>
+      </c>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="n">
+        <v>86188.86420000001</v>
+      </c>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="n">
+        <v>3693.1266</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>825.4003</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>408.0875</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>5354.5405</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>121.5131</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2021年第四季度</t>
+          <t>2021年D</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -4762,6 +8530,63 @@
       </c>
       <c r="V73" t="n">
         <v>560.6197</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1269.8353</v>
+      </c>
+      <c r="X73" t="n">
+        <v>121378.0177</v>
+      </c>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="n">
+        <v>4860.384800000001</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>5611.3111</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>7500.634499999998</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2238.088999999999</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>23648.7185</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>18511.439</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>10745.604</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>910.9649999999999</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>3804.546200000001</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1002.4333</v>
+      </c>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="n">
+        <v>181101.6373</v>
+      </c>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="n">
+        <v>5888.404299999999</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1822.6359</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>998.3869999999999</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>9124.880299999999</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>167.2746999999999</v>
       </c>
     </row>
   </sheetData>
